--- a/Nizovi Explainer.xlsx
+++ b/Nizovi Explainer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Instrukcije FIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C++ Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF5E43B-8E30-451A-BE27-F008A21296C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED3872-B0EA-4374-AEE9-4E5BFABB5E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,273 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
-    <r>
+    <t>STATIČKI NIZ</t>
+  </si>
+  <si>
+    <t>IZGLED</t>
+  </si>
+  <si>
+    <t>POKAZIVAČ NA NIZ</t>
+  </si>
+  <si>
+    <t>NAZIV</t>
+  </si>
+  <si>
+    <t>NIZ POKAZIVAČA</t>
+  </si>
+  <si>
+    <t>MEMORIJSKI PROSTOR</t>
+  </si>
+  <si>
+    <t>_PolozeniPredmeti</t>
+  </si>
+  <si>
+    <t>dinamički</t>
+  </si>
+  <si>
+    <t>statički</t>
+  </si>
+  <si>
+    <t>niz[0]</t>
+  </si>
+  <si>
+    <t>niz[1]</t>
+  </si>
+  <si>
+    <t>niz[2]</t>
+  </si>
+  <si>
+    <t>niz[3]</t>
+  </si>
+  <si>
+    <t>niz[4]</t>
+  </si>
+  <si>
+    <t>MEMORY USAGE</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>ALOKACIJA</t>
+  </si>
+  <si>
+    <t>TRENUTNO/MAX</t>
+  </si>
+  <si>
+    <t>TRENUTNO</t>
+  </si>
+  <si>
+    <t>COPY/OPERATOR =</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> i = 0; i &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>obj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>._trenutno; i++)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_PolozeniPredmeti[i] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>obj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>._PolozeniPredmeti[i];</t>
+    </r>
+  </si>
+  <si>
+    <t>DODAVANJE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_PolozeniPredmeti[_trenutno] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>noviPredmet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>_trenutno++;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_PolozeniPredmeti[_trenutno] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
       <t>Predmet</t>
     </r>
     <r>
@@ -38,11 +304,74 @@
         <family val="3"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve"> _PolozeniPredmeti[5];</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>noviPredmet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>DEALOKACIJA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_PolozeniPredmeti[i] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
       <t>Predmet</t>
     </r>
     <r>
@@ -53,83 +382,28 @@
         <family val="3"/>
         <charset val="238"/>
       </rPr>
-      <t>* _PolozeniPredmeti;</t>
-    </r>
-  </si>
-  <si>
-    <t>STATIČKI NIZ</t>
-  </si>
-  <si>
-    <t>IZGLED</t>
-  </si>
-  <si>
-    <t>POKAZIVAČ NA NIZ</t>
-  </si>
-  <si>
-    <t>NAZIV</t>
-  </si>
-  <si>
-    <t>NIZ POKAZIVAČA</t>
-  </si>
-  <si>
-    <t>MEMORIJSKI PROSTOR</t>
-  </si>
-  <si>
-    <t>_PolozeniPredmeti</t>
-  </si>
-  <si>
-    <t>dinamički</t>
-  </si>
-  <si>
-    <t>statički</t>
-  </si>
-  <si>
-    <t>niz[0]</t>
-  </si>
-  <si>
-    <t>niz[1]</t>
-  </si>
-  <si>
-    <t>niz[2]</t>
-  </si>
-  <si>
-    <t>niz[3]</t>
-  </si>
-  <si>
-    <t>niz[4]</t>
-  </si>
-  <si>
-    <t>MEMORY USAGE</t>
-  </si>
-  <si>
-    <t>HIGH</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>MEDIUM</t>
-  </si>
-  <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>ALOKACIJA</t>
-  </si>
-  <si>
-    <t>TRENUTNO/MAX</t>
-  </si>
-  <si>
-    <t>TRENUTNO</t>
-  </si>
-  <si>
-    <t>COPY/OPERATOR =</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>}</t>
+      <t>(*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>obj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>._PolozeniPredmeti[i]);</t>
+    </r>
   </si>
   <si>
     <r>
@@ -163,42 +437,102 @@
         <family val="3"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve"> i = 0; i &lt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>obj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>._trenutno; i++)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">_PolozeniPredmeti[i] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF008080"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>=</t>
+      <t xml:space="preserve"> i = 0; i &lt; _trenutno; i++)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> _PolozeniPredmeti[i];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_PolozeniPredmeti[i] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>nullptr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>delete[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> _PolozeniPredmeti;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_PolozeniPredmeti = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>nullptr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_PolozeniPredmeti = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>new</t>
     </r>
     <r>
       <rPr>
@@ -213,112 +547,6 @@
     <r>
       <rPr>
         <sz val="9.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>obj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>._PolozeniPredmeti[i];</t>
-    </r>
-  </si>
-  <si>
-    <t>DODAVANJE</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">_PolozeniPredmeti[_trenutno] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF008080"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>noviPredmet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF008000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>_trenutno++;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">_PolozeniPredmeti[_trenutno] = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
         <color rgb="FF2B91AF"/>
         <rFont val="Cascadia Mono"/>
         <family val="3"/>
@@ -334,74 +562,11 @@
         <family val="3"/>
         <charset val="238"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>noviPredmet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>);</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF008000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>DEALOKACIJA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">_PolozeniPredmeti[i] = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF2B91AF"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
+      <t>[_trenutno];</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Predmet</t>
     </r>
     <r>
@@ -412,142 +577,7 @@
         <family val="3"/>
         <charset val="238"/>
       </rPr>
-      <t>(*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>obj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>._PolozeniPredmeti[i]);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> i = 0; i &lt; _trenutno; i++)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>delete</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> _PolozeniPredmeti[i];</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">_PolozeniPredmeti[i] = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>nullptr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>delete[]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> _PolozeniPredmeti;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">_PolozeniPredmeti = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>nullptr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>;</t>
+      <t xml:space="preserve"> _elementi1[max];</t>
     </r>
   </si>
   <si>
@@ -562,41 +592,11 @@
         <family val="3"/>
         <charset val="238"/>
       </rPr>
-      <t>* _PolozeniPredmeti[MAX];</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">_PolozeniPredmeti = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF2B91AF"/>
-        <rFont val="Cascadia Mono"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
+      <t>* _elementi1;</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Predmet</t>
     </r>
     <r>
@@ -607,7 +607,7 @@
         <family val="3"/>
         <charset val="238"/>
       </rPr>
-      <t>[_trenutno];</t>
+      <t>* _elementi1[max];</t>
     </r>
   </si>
 </sst>
@@ -817,7 +817,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,6 +838,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,348 +1127,348 @@
   <dimension ref="A2:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="55.42578125" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" customWidth="1"/>
-    <col min="6" max="6" width="55.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.5703125" customWidth="1"/>
-    <col min="8" max="8" width="0.42578125" customWidth="1"/>
-    <col min="9" max="9" width="64.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.44140625" customWidth="1"/>
+    <col min="4" max="4" width="0.88671875" customWidth="1"/>
+    <col min="5" max="5" width="0.6640625" customWidth="1"/>
+    <col min="6" max="6" width="55.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.5546875" customWidth="1"/>
+    <col min="8" max="8" width="0.44140625" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
-      <c r="F21" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="19" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="F27" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="F27" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I28" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I29" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I30" s="18" t="s">
-        <v>26</v>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
